--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4155" tabRatio="741"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="2565" tabRatio="741"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -592,7 +593,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="2565" tabRatio="741"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="3030" tabRatio="741"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>UserName</t>
   </si>
@@ -199,18 +198,12 @@
     <t>4112344112344113</t>
   </si>
   <si>
-    <t>CCmastercard</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
     <t>5111005111051128</t>
   </si>
   <si>
-    <t xml:space="preserve">ccdiscover </t>
-  </si>
-  <si>
     <t>6011016011016011</t>
   </si>
   <si>
@@ -220,7 +213,28 @@
     <t>37114437114436</t>
   </si>
   <si>
-    <t xml:space="preserve">ccamex </t>
+    <t>productnameRegester</t>
+  </si>
+  <si>
+    <t>Honeywell HEPA Tower Air Purifier</t>
+  </si>
+  <si>
+    <t>ccamex</t>
+  </si>
+  <si>
+    <t>Ccmastercard</t>
+  </si>
+  <si>
+    <t>ccdiscover</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
   </si>
 </sst>
 </file>
@@ -590,15 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -607,6 +621,7 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
@@ -755,20 +770,20 @@
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O5" s="3">
         <v>2025</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="4">
         <v>123</v>
@@ -780,16 +795,16 @@
       </c>
       <c r="C6" s="1"/>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O6" s="3">
         <v>2025</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="4">
         <v>123</v>
@@ -797,20 +812,20 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1"/>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" s="3">
         <v>2025</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="4">
         <v>123</v>
@@ -935,6 +950,14 @@
       </c>
       <c r="V13" s="7" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9807471-AE57-4BEC-A2BE-8F36814A763B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="3030" tabRatio="741"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>UserName</t>
   </si>
@@ -186,9 +187,6 @@
     <t>productname</t>
   </si>
   <si>
-    <t>HPA5100 HEPA Air Purifier for Medium-Large Rooms</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -235,12 +233,24 @@
   </si>
   <si>
     <t>MasterCard</t>
+  </si>
+  <si>
+    <t>Honeywell True HEPA Tabletop Air Purifier</t>
+  </si>
+  <si>
+    <t>NewsletterSubscription</t>
+  </si>
+  <si>
+    <t>InvalidCC</t>
+  </si>
+  <si>
+    <t>4112344112344115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -603,16 +613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:V14"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
@@ -666,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
@@ -749,14 +759,14 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1"/>
       <c r="M4" t="s">
         <v>23</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="3">
         <v>2025</v>
@@ -770,20 +780,20 @@
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1"/>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3">
         <v>2025</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="4">
         <v>123</v>
@@ -791,20 +801,20 @@
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1"/>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="3">
         <v>2025</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="4">
         <v>123</v>
@@ -812,20 +822,20 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1"/>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="3">
         <v>2025</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="4">
         <v>123</v>
@@ -949,33 +959,63 @@
         <v>53</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" t="s">
         <v>64</v>
       </c>
-      <c r="V14" t="s">
-        <v>65</v>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2025</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="S11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F2" r:id="rId11"/>
-    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{126D6E9A-57FC-473F-AD27-A046996A624C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9807471-AE57-4BEC-A2BE-8F36814A763B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B9254-3FCA-415D-857A-466DD72ED6E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B9254-3FCA-415D-857A-466DD72ED6E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>UserName</t>
   </si>
@@ -245,12 +244,18 @@
   </si>
   <si>
     <t>4112344112344115</t>
+  </si>
+  <si>
+    <t>Promationcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONEYWELL15 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -613,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,9 +644,10 @@
     <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +714,11 @@
       <c r="V1" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -729,7 +738,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +766,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -778,7 +787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>67</v>
       </c>
@@ -799,7 +808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -820,7 +829,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -841,7 +850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -872,7 +881,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -898,7 +907,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -911,7 +920,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -934,7 +943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -954,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -962,7 +971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -970,7 +979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -978,7 +987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -999,21 +1008,29 @@
         <v>123</v>
       </c>
     </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{126D6E9A-57FC-473F-AD27-A046996A624C}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="S11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAAAF6A-F4FC-4C87-8351-46B0CB161897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>UserName</t>
   </si>
@@ -219,9 +220,6 @@
     <t>ccamex</t>
   </si>
   <si>
-    <t>Ccmastercard</t>
-  </si>
-  <si>
     <t>ccdiscover</t>
   </si>
   <si>
@@ -250,12 +248,30 @@
   </si>
   <si>
     <t xml:space="preserve">HONEYWELL15 </t>
+  </si>
+  <si>
+    <t>Manoj@123</t>
+  </si>
+  <si>
+    <t>HeaderNames</t>
+  </si>
+  <si>
+    <t>HeaderLinksShops</t>
+  </si>
+  <si>
+    <t>Air Purifiers,Fans,Heaters,Humidifiers,Filters &amp; Accessories</t>
+  </si>
+  <si>
+    <t>WarrantyDetails</t>
+  </si>
+  <si>
+    <t>CCmastercard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -618,17 +634,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -645,9 +661,10 @@
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,10 +732,13 @@
         <v>54</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -738,7 +758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -766,7 +786,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -787,13 +807,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1"/>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>60</v>
@@ -808,13 +828,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="1"/>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>62</v>
@@ -829,13 +849,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1"/>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>59</v>
@@ -850,7 +870,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -881,7 +901,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -907,7 +927,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -920,7 +940,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -943,7 +963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -963,15 +983,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -979,24 +999,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1"/>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O16" s="3">
         <v>2025</v>
@@ -1008,31 +1028,66 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" t="s">
         <v>75</v>
       </c>
-      <c r="W17" t="s">
-        <v>76</v>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F8" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="S11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F2" r:id="rId11"/>
-    <hyperlink ref="F11" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F2" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{0B9E621A-1A5B-49C6-B29C-BEF94271900F}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{48B2DF20-5CAB-403D-805D-9616056BBCF4}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{BC318CF8-B490-4080-B152-E9A47AD56F09}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{D28C3A08-29CE-40EA-9AA2-E6CD7EB6B4EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAAAF6A-F4FC-4C87-8351-46B0CB161897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D0DC41-B265-415C-8BDF-93E16129CFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>UserName</t>
   </si>
@@ -193,30 +193,15 @@
     <t>CCVisa</t>
   </si>
   <si>
-    <t>4112344112344113</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
-    <t>5111005111051128</t>
-  </si>
-  <si>
-    <t>6011016011016011</t>
-  </si>
-  <si>
     <t>Apr</t>
   </si>
   <si>
-    <t>37114437114436</t>
-  </si>
-  <si>
     <t>productnameRegester</t>
   </si>
   <si>
-    <t>Honeywell HEPA Tower Air Purifier</t>
-  </si>
-  <si>
     <t>ccamex</t>
   </si>
   <si>
@@ -232,9 +217,6 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>Honeywell True HEPA Tabletop Air Purifier</t>
-  </si>
-  <si>
     <t>NewsletterSubscription</t>
   </si>
   <si>
@@ -266,6 +248,21 @@
   </si>
   <si>
     <t>CCmastercard</t>
+  </si>
+  <si>
+    <t>HEPA Tabletop Air Purifier</t>
+  </si>
+  <si>
+    <t>5555555555555557</t>
+  </si>
+  <si>
+    <t>343434343434343</t>
+  </si>
+  <si>
+    <t>6011000995500000</t>
+  </si>
+  <si>
+    <t>4055011111111111</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +635,7 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,10 +729,10 @@
         <v>54</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -795,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="O4" s="3">
         <v>2025</v>
@@ -809,62 +806,62 @@
     </row>
     <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1"/>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O5" s="3">
         <v>2025</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1"/>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="O6" s="3">
         <v>2025</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="4">
-        <v>123</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1"/>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O7" s="3">
         <v>2025</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="4">
         <v>123</v>
@@ -988,20 +985,20 @@
         <v>53</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>48</v>
@@ -1009,14 +1006,14 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1"/>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O16" s="3">
         <v>2025</v>
@@ -1030,32 +1027,32 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>48</v>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D0DC41-B265-415C-8BDF-93E16129CFA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB2C26-AAEA-4A62-A513-161F49E50CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>UserName</t>
   </si>
@@ -236,12 +236,6 @@
   </si>
   <si>
     <t>HeaderNames</t>
-  </si>
-  <si>
-    <t>HeaderLinksShops</t>
-  </si>
-  <si>
-    <t>Air Purifiers,Fans,Heaters,Humidifiers,Filters &amp; Accessories</t>
   </si>
   <si>
     <t>WarrantyDetails</t>
@@ -632,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +652,8 @@
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -792,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O4" s="3">
         <v>2025</v>
@@ -813,7 +808,7 @@
         <v>62</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O5" s="3">
         <v>2025</v>
@@ -834,7 +829,7 @@
         <v>63</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O6" s="3">
         <v>2025</v>
@@ -848,14 +843,14 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="1"/>
       <c r="M7" t="s">
         <v>64</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O7" s="3">
         <v>2025</v>
@@ -985,7 +980,7 @@
         <v>53</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -993,7 +988,7 @@
         <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1025,7 +1020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1042,25 +1037,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="X18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1082,7 +1069,7 @@
     <hyperlink ref="B17" r:id="rId14" xr:uid="{0B9E621A-1A5B-49C6-B29C-BEF94271900F}"/>
     <hyperlink ref="C17" r:id="rId15" xr:uid="{48B2DF20-5CAB-403D-805D-9616056BBCF4}"/>
     <hyperlink ref="F17" r:id="rId16" xr:uid="{BC318CF8-B490-4080-B152-E9A47AD56F09}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{D28C3A08-29CE-40EA-9AA2-E6CD7EB6B4EA}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{D28C3A08-29CE-40EA-9AA2-E6CD7EB6B4EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>

--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB2C26-AAEA-4A62-A513-161F49E50CD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61760349-9BDF-4E19-B570-E986D118C45C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>UserName</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>4055011111111111</t>
+  </si>
+  <si>
+    <t>datecode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>placeofpurchese</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>10500 (AIR  PURIFIER  REPLACEMENT FILTER FOREV10)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +315,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -626,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="R6" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,25 +659,29 @@
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -685,52 +710,61 @@
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -750,7 +784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -770,99 +804,99 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12345</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>9898989899</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>2025</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>2025</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>2025</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <v>7373</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>2025</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -885,15 +919,15 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>8500563032</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -912,14 +946,14 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>46008</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -932,7 +966,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -942,20 +976,20 @@
       <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>44</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -975,23 +1009,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="W13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -999,28 +1033,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>2025</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1033,11 +1067,11 @@
       <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1050,8 +1084,45 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>8500563032</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y18">
+        <v>123456</v>
+      </c>
+      <c r="Z18">
+        <v>123456</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1059,7 +1130,7 @@
     <hyperlink ref="F10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
@@ -1070,8 +1141,9 @@
     <hyperlink ref="C17" r:id="rId15" xr:uid="{48B2DF20-5CAB-403D-805D-9616056BBCF4}"/>
     <hyperlink ref="F17" r:id="rId16" xr:uid="{BC318CF8-B490-4080-B152-E9A47AD56F09}"/>
     <hyperlink ref="B18" r:id="rId17" xr:uid="{D28C3A08-29CE-40EA-9AA2-E6CD7EB6B4EA}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{10CA635F-E83B-4C2D-8EAE-6C837869719F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61760349-9BDF-4E19-B570-E986D118C45C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027BBF7D-7736-4737-B114-42C5FB954461}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>UserName</t>
   </si>
@@ -272,6 +272,30 @@
   </si>
   <si>
     <t>10500 (AIR  PURIFIER  REPLACEMENT FILTER FOREV10)</t>
+  </si>
+  <si>
+    <t>ContactUs</t>
+  </si>
+  <si>
+    <t>845 N Colony Rd</t>
+  </si>
+  <si>
+    <t>06493</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Application Testing</t>
   </si>
 </sst>
 </file>
@@ -647,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R6" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,18 +694,21 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,34 +764,43 @@
         <v>20</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -784,7 +820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -812,7 +848,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -832,8 +868,9 @@
       <c r="R4" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
@@ -853,8 +890,9 @@
       <c r="R5" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>60</v>
       </c>
@@ -874,8 +912,9 @@
       <c r="R6" s="4">
         <v>7373</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -895,8 +934,9 @@
       <c r="R7" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -927,7 +967,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -953,7 +993,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -966,7 +1006,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -976,20 +1016,20 @@
       <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>44</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1009,23 +1049,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="X13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1033,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1053,8 +1093,9 @@
       <c r="R16" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1067,11 +1108,11 @@
       <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1108,17 +1149,66 @@
       <c r="L18">
         <v>8500563032</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>83</v>
-      </c>
-      <c r="Y18">
-        <v>123456</v>
       </c>
       <c r="Z18">
         <v>123456</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AA18">
+        <v>123456</v>
+      </c>
+      <c r="AB18" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19">
+        <v>8500563032</v>
+      </c>
+      <c r="S19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC19">
+        <v>52486521456</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1220,7 @@
     <hyperlink ref="F10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="T11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="U11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="C12" r:id="rId8" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
@@ -1142,8 +1232,9 @@
     <hyperlink ref="F17" r:id="rId16" xr:uid="{BC318CF8-B490-4080-B152-E9A47AD56F09}"/>
     <hyperlink ref="B18" r:id="rId17" xr:uid="{D28C3A08-29CE-40EA-9AA2-E6CD7EB6B4EA}"/>
     <hyperlink ref="F18" r:id="rId18" xr:uid="{10CA635F-E83B-4C2D-8EAE-6C837869719F}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{48F9F34E-0193-4344-9E1B-9C19663B9A42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_spanem\Desktop\Helenoftroy\src\test\resources\TestData\Honeywell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit venkata\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0670D-4AC0-488E-9732-1A937A91BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BE855-4F62-4611-B653-68F11AFE5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10560" xr2:uid="{A010DEA6-C723-45DD-9008-F96D11F4B288}"/>
+    <workbookView xWindow="240" yWindow="744" windowWidth="22800" windowHeight="12216" xr2:uid="{A010DEA6-C723-45DD-9008-F96D11F4B288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
   <si>
     <t>DataSet</t>
   </si>
@@ -416,6 +416,60 @@
   </si>
   <si>
     <t>Air Genius 4 Air Purifier</t>
+  </si>
+  <si>
+    <t>2 Dream Valley Rd</t>
+  </si>
+  <si>
+    <t>Sylva</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>avs_Validation_address</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Adminpannel</t>
+  </si>
+  <si>
+    <t>manoj</t>
+  </si>
+  <si>
+    <t>I38@pAir8M</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>mah en dra</t>
+  </si>
+  <si>
+    <t>k a</t>
+  </si>
+  <si>
+    <t>yoga.manoj6gmail</t>
+  </si>
+  <si>
+    <t>!tgf gggg</t>
+  </si>
+  <si>
+    <t>!Bomoseen</t>
+  </si>
+  <si>
+    <t>!ASDFGH</t>
+  </si>
+  <si>
+    <t>Erroraccount</t>
+  </si>
+  <si>
+    <t>a124</t>
+  </si>
+  <si>
+    <t>ajitvvgmailcom</t>
   </si>
 </sst>
 </file>
@@ -425,7 +479,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +520,27 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -494,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -522,6 +597,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,54 +915,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218C633E-AFC1-474C-AFA3-1B66D8DC790C}">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +1101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1129,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1150,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1093,7 +1171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -1114,7 +1192,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1213,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1166,7 +1244,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1192,7 +1270,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1205,7 +1283,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1228,7 +1306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1248,7 +1326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1256,7 +1334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1267,7 +1345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1275,7 +1353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1296,7 +1374,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1313,7 +1391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1366,7 +1444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1380,7 +1458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1421,7 +1499,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1438,7 +1516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -1446,7 +1524,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1457,7 +1535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1465,7 +1543,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -1473,7 +1551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -1503,12 +1581,130 @@
       </c>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>128</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="W27" s="6" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28">
+        <v>28779</v>
+      </c>
+      <c r="L28" s="3">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29">
+        <v>28779</v>
+      </c>
+      <c r="L29" s="3">
+        <v>9898989899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" t="s">
+        <v>144</v>
+      </c>
+      <c r="L31">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1537,8 +1733,11 @@
     <hyperlink ref="F21" r:id="rId22" xr:uid="{BC2053EF-0B9D-4637-8CA7-BB8773D11A6D}"/>
     <hyperlink ref="AI21" r:id="rId23" xr:uid="{90BEB7DC-3FFD-4D15-9354-AA5E829CF017}"/>
     <hyperlink ref="F26" r:id="rId24" xr:uid="{4E0C6463-941A-4865-8DBB-6EE3DDD3C6B3}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{53EDA22B-F63A-4A7A-AE28-C217FB4D2205}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{98161359-F951-451B-9D0F-8E3092E880D6}"/>
+    <hyperlink ref="F32" r:id="rId27" display="mailto:ajitvv8@gmail.com" xr:uid="{EEEB779D-AE86-4EF1-8EEF-3EAB170D78BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
+++ b/src/test/resources/TestData/Honeywell/HoneywellTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit venkata\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\37\HoT-digital\src\test\resources\TestData\Honeywell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BE855-4F62-4611-B653-68F11AFE5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FE8CF6-4FAA-4085-AD47-60729B659A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="744" windowWidth="22800" windowHeight="12216" xr2:uid="{A010DEA6-C723-45DD-9008-F96D11F4B288}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A010DEA6-C723-45DD-9008-F96D11F4B288}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="153">
   <si>
     <t>DataSet</t>
   </si>
@@ -403,9 +403,6 @@
     <t>Bomoseen</t>
   </si>
   <si>
-    <t>5732</t>
-  </si>
-  <si>
     <t>ShippingAddress1</t>
   </si>
   <si>
@@ -470,6 +467,24 @@
   </si>
   <si>
     <t>ajitvvgmailcom</t>
+  </si>
+  <si>
+    <t>productnameRegester2</t>
+  </si>
+  <si>
+    <t>360° Surround Heater</t>
+  </si>
+  <si>
+    <t>spanem96@gmail.com</t>
+  </si>
+  <si>
+    <t>57321</t>
+  </si>
+  <si>
+    <t>Air Purifier and Air Circulator Test Bundle</t>
+  </si>
+  <si>
+    <t>productname1</t>
   </si>
 </sst>
 </file>
@@ -915,54 +930,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218C633E-AFC1-474C-AFA3-1B66D8DC790C}">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.109375" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" customWidth="1"/>
+    <col min="40" max="40" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1096,11 @@
       <c r="AM1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1101,7 +1120,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1129,7 +1148,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1213,7 +1232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1237,14 +1256,14 @@
         <v>122</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L8" s="3">
         <v>8500563032</v>
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1270,7 +1289,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1283,7 +1302,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1306,7 +1325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -1326,15 +1345,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
       <c r="W13" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1345,7 +1367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -1353,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1391,7 +1413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1444,7 +1466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1458,7 +1480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1499,7 +1521,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -1543,7 +1565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -1551,9 +1573,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -1562,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>123</v>
@@ -1574,25 +1596,25 @@
         <v>122</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L26" s="3">
         <v>8500563032</v>
       </c>
       <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="1:39" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2"/>
       <c r="W27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
         <v>59</v>
@@ -1604,13 +1626,13 @@
         <v>61</v>
       </c>
       <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
         <v>130</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="K28">
         <v>28779</v>
@@ -1619,9 +1641,9 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
@@ -1633,13 +1655,13 @@
         <v>61</v>
       </c>
       <c r="G29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
         <v>130</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="K29">
         <v>28779</v>
@@ -1648,63 +1670,71 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
         <v>135</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>140</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>141</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>142</v>
-      </c>
-      <c r="H31" t="s">
-        <v>143</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>122</v>
       </c>
       <c r="K31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L31">
         <v>2531</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>147</v>
+      </c>
+      <c r="W33" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
